--- a/result/metrics_values/E-Wallet-Service.xlsx
+++ b/result/metrics_values/E-Wallet-Service.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.0009662051387624383</t>
+          <t>0.0009526358259104553</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.0006211634042971361</t>
+          <t>0.0006055202908017369</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.001057717449292055</t>
+          <t>0.0010281600512437072</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0009236464502634992</t>
+          <t>0.000894657463716081</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.0014964391103521914</t>
+          <t>0.0014587534278405478</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">

--- a/result/metrics_values/E-Wallet-Service.xlsx
+++ b/result/metrics_values/E-Wallet-Service.xlsx
@@ -484,7 +484,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>transaction-service</t>
+          <t>user-service</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -524,34 +524,34 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.0009526358259104553</t>
+          <t>0.0006055202908017369</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>user-service</t>
+          <t>notification-service</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -566,39 +566,39 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.003830520323579347</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.0006055202908017369</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>notification-service</t>
+          <t>transaction-service</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -613,12 +613,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.003830520323579347</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0009526358259104553</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>transaction-service</t>
+          <t>user-service</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>user-service</t>
+          <t>notification-service</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -735,17 +735,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>user-service</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>transaction-service</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>notification-service</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.005018283923207523</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -757,7 +757,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>transaction-service</t>
+          <t>user-service</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.000894657463716081</t>
+          <t>0.0014587534278405478</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -779,12 +779,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>notification-service</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>user-service</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>transaction-service</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -801,12 +801,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>user-service</t>
+          <t>notification-service</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>notification-service</t>
+          <t>transaction-service</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -823,7 +823,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>user-service</t>
+          <t>notification-service</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.0014587534278405478</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -845,12 +845,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>notification-service</t>
+          <t>transaction-service</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>transaction-service</t>
+          <t>user-service</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -867,17 +867,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>transaction-service</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>notification-service</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>user-service</t>
-        </is>
-      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.005018283923207523</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -889,7 +889,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>notification-service</t>
+          <t>transaction-service</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.000894657463716081</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>transaction-service</t>
+          <t>user-service</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>user-service</t>
+          <t>notification-service</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.005909090909090909</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -960,12 +960,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>notification-service</t>
+          <t>transaction-service</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.005909090909090909</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
